--- a/full.xlsx
+++ b/full.xlsx
@@ -1,22 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17571"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4507"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\independent stdy\dataset\dataset teja\decision tree\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="171027"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <calcPr calcId="125725"/>
+  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -77,8 +72,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -381,26 +376,26 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q246"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:P246"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="Q5" sqref="Q5"/>
+      <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="2" max="2" width="12" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -447,7 +442,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:16">
       <c r="A2">
         <v>0</v>
       </c>
@@ -493,12 +488,8 @@
       <c r="O2">
         <v>1</v>
       </c>
-      <c r="Q2">
-        <f>COUNTIF(O2:O246, 1)</f>
-        <v>109</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:16">
       <c r="A3">
         <v>1</v>
       </c>
@@ -544,12 +535,8 @@
       <c r="O3">
         <v>3</v>
       </c>
-      <c r="Q3">
-        <f>COUNTIF(O2:O246,2)</f>
-        <v>35</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:16">
       <c r="A4">
         <v>1</v>
       </c>
@@ -595,12 +582,8 @@
       <c r="O4">
         <v>3</v>
       </c>
-      <c r="Q4">
-        <f>COUNTIF(O2:O246, 3)</f>
-        <v>101</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="1:16" ht="13.5" customHeight="1">
       <c r="A5">
         <v>0</v>
       </c>
@@ -647,7 +630,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:16">
       <c r="A6">
         <v>1</v>
       </c>
@@ -694,7 +677,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:16">
       <c r="A7">
         <v>0</v>
       </c>
@@ -744,7 +727,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:16">
       <c r="A8">
         <v>0</v>
       </c>
@@ -791,7 +774,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:16">
       <c r="A9">
         <v>1</v>
       </c>
@@ -838,7 +821,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:16">
       <c r="A10">
         <v>1</v>
       </c>
@@ -885,7 +868,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:16">
       <c r="A11">
         <v>0</v>
       </c>
@@ -932,7 +915,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:16">
       <c r="A12">
         <v>1</v>
       </c>
@@ -979,7 +962,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:16">
       <c r="A13">
         <v>0</v>
       </c>
@@ -1029,7 +1012,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:16">
       <c r="A14">
         <v>0</v>
       </c>
@@ -1076,7 +1059,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:16">
       <c r="A15">
         <v>0</v>
       </c>
@@ -1123,7 +1106,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:16">
       <c r="A16">
         <v>1</v>
       </c>
@@ -1170,7 +1153,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:15">
       <c r="A17">
         <v>1</v>
       </c>
@@ -1217,7 +1200,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:15">
       <c r="A18">
         <v>0</v>
       </c>
@@ -1264,7 +1247,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:15">
       <c r="A19">
         <v>1</v>
       </c>
@@ -1311,7 +1294,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:15">
       <c r="A20">
         <v>0</v>
       </c>
@@ -1358,7 +1341,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:15">
       <c r="A21">
         <v>0</v>
       </c>
@@ -1405,7 +1388,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:15">
       <c r="A22">
         <v>1</v>
       </c>
@@ -1452,7 +1435,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:15">
       <c r="A23">
         <v>1</v>
       </c>
@@ -1499,7 +1482,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:15">
       <c r="A24">
         <v>1</v>
       </c>
@@ -1546,7 +1529,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:15">
       <c r="A25">
         <v>1</v>
       </c>
@@ -1593,7 +1576,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:15">
       <c r="A26">
         <v>0</v>
       </c>
@@ -1640,7 +1623,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:15">
       <c r="A27">
         <v>1</v>
       </c>
@@ -1687,7 +1670,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:15">
       <c r="A28">
         <v>1</v>
       </c>
@@ -1734,7 +1717,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:15">
       <c r="A29">
         <v>0</v>
       </c>
@@ -1781,7 +1764,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:15">
       <c r="A30">
         <v>0</v>
       </c>
@@ -1828,7 +1811,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:15">
       <c r="A31">
         <v>0</v>
       </c>
@@ -1875,7 +1858,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:15">
       <c r="A32">
         <v>1</v>
       </c>
@@ -1922,7 +1905,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:15">
       <c r="A33">
         <v>1</v>
       </c>
@@ -1969,7 +1952,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:15">
       <c r="A34">
         <v>0</v>
       </c>
@@ -2016,7 +1999,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:15">
       <c r="A35">
         <v>0</v>
       </c>
@@ -2063,7 +2046,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:15">
       <c r="A36">
         <v>1</v>
       </c>
@@ -2110,7 +2093,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:15">
       <c r="A37">
         <v>1</v>
       </c>
@@ -2157,7 +2140,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:15">
       <c r="A38">
         <v>0</v>
       </c>
@@ -2204,7 +2187,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="39" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:15">
       <c r="A39">
         <v>0</v>
       </c>
@@ -2251,7 +2234,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:15">
       <c r="A40">
         <v>1</v>
       </c>
@@ -2298,7 +2281,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="41" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:15">
       <c r="A41">
         <v>0</v>
       </c>
@@ -2345,7 +2328,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:15">
       <c r="A42">
         <v>0</v>
       </c>
@@ -2392,7 +2375,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:15">
       <c r="A43">
         <v>0</v>
       </c>
@@ -2439,7 +2422,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="44" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:15">
       <c r="A44">
         <v>0</v>
       </c>
@@ -2486,7 +2469,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="45" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:15">
       <c r="A45">
         <v>0</v>
       </c>
@@ -2533,7 +2516,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="46" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:15">
       <c r="A46">
         <v>0</v>
       </c>
@@ -2580,7 +2563,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="47" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:15">
       <c r="A47">
         <v>0</v>
       </c>
@@ -2627,7 +2610,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:15">
       <c r="A48">
         <v>1</v>
       </c>
@@ -2674,7 +2657,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="49" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:16">
       <c r="A49">
         <v>0</v>
       </c>
@@ -2721,7 +2704,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="50" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:16">
       <c r="A50">
         <v>1</v>
       </c>
@@ -2768,7 +2751,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:16">
       <c r="A51">
         <v>1</v>
       </c>
@@ -2815,7 +2798,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="52" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:16">
       <c r="A52">
         <v>1</v>
       </c>
@@ -2862,7 +2845,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="53" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:16">
       <c r="A53">
         <v>1</v>
       </c>
@@ -2909,7 +2892,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="54" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:16">
       <c r="A54">
         <v>1</v>
       </c>
@@ -2956,7 +2939,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="55" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:16">
       <c r="A55">
         <v>1</v>
       </c>
@@ -3003,7 +2986,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="56" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:16">
       <c r="A56">
         <v>0</v>
       </c>
@@ -3053,7 +3036,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="57" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:16">
       <c r="A57">
         <v>0</v>
       </c>
@@ -3100,7 +3083,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="58" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:16">
       <c r="A58">
         <v>0</v>
       </c>
@@ -3147,7 +3130,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:16">
       <c r="A59">
         <v>1</v>
       </c>
@@ -3194,7 +3177,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:16">
       <c r="A60">
         <v>0</v>
       </c>
@@ -3241,7 +3224,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:16">
       <c r="A61">
         <v>1</v>
       </c>
@@ -3288,7 +3271,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="62" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:16">
       <c r="A62">
         <v>1</v>
       </c>
@@ -3335,7 +3318,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="63" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:16">
       <c r="A63">
         <v>0</v>
       </c>
@@ -3385,7 +3368,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="64" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:16">
       <c r="A64">
         <v>1</v>
       </c>
@@ -3432,7 +3415,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="65" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:16">
       <c r="A65">
         <v>0</v>
       </c>
@@ -3479,7 +3462,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="66" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:16">
       <c r="A66">
         <v>1</v>
       </c>
@@ -3526,7 +3509,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="67" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:16">
       <c r="A67">
         <v>1</v>
       </c>
@@ -3573,7 +3556,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="68" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:16">
       <c r="A68">
         <v>1</v>
       </c>
@@ -3620,7 +3603,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="69" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:16">
       <c r="A69">
         <v>0</v>
       </c>
@@ -3670,7 +3653,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="70" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:16">
       <c r="A70">
         <v>1</v>
       </c>
@@ -3717,7 +3700,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="71" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:16">
       <c r="A71">
         <v>0</v>
       </c>
@@ -3764,7 +3747,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="72" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:16">
       <c r="A72">
         <v>1</v>
       </c>
@@ -3811,7 +3794,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="73" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:16">
       <c r="A73">
         <v>0</v>
       </c>
@@ -3858,7 +3841,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="74" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:16">
       <c r="A74">
         <v>0</v>
       </c>
@@ -3905,7 +3888,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="75" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:16">
       <c r="A75">
         <v>0</v>
       </c>
@@ -3952,7 +3935,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="76" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:16">
       <c r="A76">
         <v>1</v>
       </c>
@@ -3999,7 +3982,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="77" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:16">
       <c r="A77">
         <v>1</v>
       </c>
@@ -4046,7 +4029,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="78" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:16">
       <c r="A78">
         <v>0</v>
       </c>
@@ -4093,7 +4076,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="79" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:16">
       <c r="A79">
         <v>0</v>
       </c>
@@ -4140,7 +4123,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="80" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:16">
       <c r="A80">
         <v>1</v>
       </c>
@@ -4187,7 +4170,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="81" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:15">
       <c r="A81">
         <v>1</v>
       </c>
@@ -4234,7 +4217,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="82" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:15">
       <c r="A82">
         <v>0</v>
       </c>
@@ -4281,7 +4264,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="83" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:15">
       <c r="A83">
         <v>0</v>
       </c>
@@ -4328,7 +4311,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="84" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:15">
       <c r="A84">
         <v>1</v>
       </c>
@@ -4375,7 +4358,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="85" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:15">
       <c r="A85">
         <v>0</v>
       </c>
@@ -4422,7 +4405,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="86" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:15">
       <c r="A86">
         <v>0</v>
       </c>
@@ -4469,7 +4452,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="87" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:15">
       <c r="A87">
         <v>0</v>
       </c>
@@ -4516,7 +4499,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="88" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:15">
       <c r="A88">
         <v>0</v>
       </c>
@@ -4563,7 +4546,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="89" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:15">
       <c r="A89">
         <v>0</v>
       </c>
@@ -4610,7 +4593,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="90" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:15">
       <c r="A90">
         <v>0</v>
       </c>
@@ -4657,7 +4640,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="91" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:15">
       <c r="A91">
         <v>0</v>
       </c>
@@ -4704,7 +4687,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="92" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:15">
       <c r="A92">
         <v>1</v>
       </c>
@@ -4751,7 +4734,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="93" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:15">
       <c r="A93">
         <v>0</v>
       </c>
@@ -4798,7 +4781,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="94" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:15">
       <c r="A94">
         <v>1</v>
       </c>
@@ -4845,7 +4828,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="95" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:15">
       <c r="A95">
         <v>0</v>
       </c>
@@ -4892,7 +4875,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="96" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:15">
       <c r="A96">
         <v>0</v>
       </c>
@@ -4939,7 +4922,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="97" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:16">
       <c r="A97">
         <v>0</v>
       </c>
@@ -4986,7 +4969,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="98" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:16">
       <c r="A98">
         <v>0</v>
       </c>
@@ -5033,7 +5016,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="99" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:16">
       <c r="A99">
         <v>0</v>
       </c>
@@ -5080,7 +5063,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="100" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:16">
       <c r="A100">
         <v>0</v>
       </c>
@@ -5127,7 +5110,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="101" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:16">
       <c r="A101">
         <v>1</v>
       </c>
@@ -5174,7 +5157,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="102" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:16">
       <c r="A102">
         <v>1</v>
       </c>
@@ -5221,7 +5204,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="103" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:16">
       <c r="A103">
         <v>0</v>
       </c>
@@ -5268,7 +5251,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="104" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:16">
       <c r="A104">
         <v>1</v>
       </c>
@@ -5315,7 +5298,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="105" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:16">
       <c r="A105">
         <v>0</v>
       </c>
@@ -5365,7 +5348,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="106" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:16">
       <c r="A106">
         <v>0</v>
       </c>
@@ -5412,7 +5395,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="107" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:16">
       <c r="A107">
         <v>1</v>
       </c>
@@ -5459,7 +5442,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="108" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:16">
       <c r="A108">
         <v>1</v>
       </c>
@@ -5506,7 +5489,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="109" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:16">
       <c r="A109">
         <v>0</v>
       </c>
@@ -5553,7 +5536,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="110" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:16">
       <c r="A110">
         <v>0</v>
       </c>
@@ -5600,7 +5583,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="111" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:16">
       <c r="A111">
         <v>1</v>
       </c>
@@ -5647,7 +5630,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="112" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:16">
       <c r="A112">
         <v>1</v>
       </c>
@@ -5694,7 +5677,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="113" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:16">
       <c r="A113">
         <v>0</v>
       </c>
@@ -5741,7 +5724,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="114" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:16">
       <c r="A114">
         <v>1</v>
       </c>
@@ -5788,7 +5771,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="115" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:16">
       <c r="A115">
         <v>0</v>
       </c>
@@ -5838,7 +5821,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="116" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:16">
       <c r="A116">
         <v>0</v>
       </c>
@@ -5885,7 +5868,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="117" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:16">
       <c r="A117">
         <v>0</v>
       </c>
@@ -5932,7 +5915,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="118" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:16">
       <c r="A118">
         <v>1</v>
       </c>
@@ -5979,7 +5962,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="119" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:16">
       <c r="A119">
         <v>1</v>
       </c>
@@ -6026,7 +6009,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="120" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:16">
       <c r="A120">
         <v>0</v>
       </c>
@@ -6073,7 +6056,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="121" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:16">
       <c r="A121">
         <v>1</v>
       </c>
@@ -6120,7 +6103,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="122" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:16">
       <c r="A122">
         <v>0</v>
       </c>
@@ -6167,7 +6150,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="123" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:16">
       <c r="A123">
         <v>0</v>
       </c>
@@ -6214,7 +6197,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="124" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:16">
       <c r="A124">
         <v>1</v>
       </c>
@@ -6261,7 +6244,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="125" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:16">
       <c r="A125">
         <v>1</v>
       </c>
@@ -6308,7 +6291,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="126" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:16">
       <c r="A126">
         <v>1</v>
       </c>
@@ -6355,7 +6338,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="127" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:16">
       <c r="A127">
         <v>1</v>
       </c>
@@ -6402,7 +6385,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="128" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:16">
       <c r="A128">
         <v>0</v>
       </c>
@@ -6449,7 +6432,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="129" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:16">
       <c r="A129">
         <v>1</v>
       </c>
@@ -6496,7 +6479,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="130" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:16">
       <c r="A130">
         <v>0</v>
       </c>
@@ -6543,7 +6526,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="131" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:16">
       <c r="A131">
         <v>1</v>
       </c>
@@ -6590,7 +6573,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="132" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:16">
       <c r="A132">
         <v>1</v>
       </c>
@@ -6637,7 +6620,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="133" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:16">
       <c r="A133">
         <v>0</v>
       </c>
@@ -6684,7 +6667,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="134" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:16">
       <c r="A134">
         <v>1</v>
       </c>
@@ -6731,7 +6714,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="135" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:16">
       <c r="A135">
         <v>0</v>
       </c>
@@ -6781,7 +6764,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="136" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:16">
       <c r="A136">
         <v>0</v>
       </c>
@@ -6828,7 +6811,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="137" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:16">
       <c r="A137">
         <v>1</v>
       </c>
@@ -6875,7 +6858,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="138" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:16">
       <c r="A138">
         <v>1</v>
       </c>
@@ -6922,7 +6905,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="139" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:16">
       <c r="A139">
         <v>0</v>
       </c>
@@ -6969,7 +6952,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="140" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:16">
       <c r="A140">
         <v>1</v>
       </c>
@@ -7016,7 +6999,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="141" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:16">
       <c r="A141">
         <v>0</v>
       </c>
@@ -7063,7 +7046,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="142" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:16">
       <c r="A142">
         <v>0</v>
       </c>
@@ -7110,7 +7093,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="143" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:16" ht="14.25" customHeight="1">
       <c r="A143">
         <v>0</v>
       </c>
@@ -7157,7 +7140,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="144" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:16">
       <c r="A144">
         <v>0</v>
       </c>
@@ -7204,7 +7187,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="145" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:15">
       <c r="A145">
         <v>0</v>
       </c>
@@ -7251,7 +7234,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="146" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:15">
       <c r="A146">
         <v>0</v>
       </c>
@@ -7298,7 +7281,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="147" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:15">
       <c r="A147">
         <v>1</v>
       </c>
@@ -7345,7 +7328,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="148" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:15">
       <c r="A148">
         <v>0</v>
       </c>
@@ -7392,7 +7375,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="149" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:15">
       <c r="A149">
         <v>1</v>
       </c>
@@ -7439,7 +7422,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="150" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:15">
       <c r="A150">
         <v>1</v>
       </c>
@@ -7486,7 +7469,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="151" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:15">
       <c r="A151">
         <v>0</v>
       </c>
@@ -7533,7 +7516,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="152" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:15">
       <c r="A152">
         <v>0</v>
       </c>
@@ -7580,7 +7563,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="153" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:15">
       <c r="A153">
         <v>0</v>
       </c>
@@ -7627,7 +7610,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="154" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:15">
       <c r="A154">
         <v>1</v>
       </c>
@@ -7674,7 +7657,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="155" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:15">
       <c r="A155">
         <v>1</v>
       </c>
@@ -7721,7 +7704,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="156" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:15">
       <c r="A156">
         <v>0</v>
       </c>
@@ -7768,7 +7751,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="157" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:15">
       <c r="A157">
         <v>0</v>
       </c>
@@ -7815,7 +7798,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="158" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:15">
       <c r="A158">
         <v>1</v>
       </c>
@@ -7862,7 +7845,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="159" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:15">
       <c r="A159">
         <v>1</v>
       </c>
@@ -7909,7 +7892,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="160" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:15">
       <c r="A160">
         <v>0</v>
       </c>
@@ -7956,7 +7939,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="161" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:15">
       <c r="A161">
         <v>0</v>
       </c>
@@ -8003,7 +7986,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="162" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:15">
       <c r="A162">
         <v>1</v>
       </c>
@@ -8050,7 +8033,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="163" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:15">
       <c r="A163">
         <v>0</v>
       </c>
@@ -8097,7 +8080,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="164" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:15">
       <c r="A164">
         <v>0</v>
       </c>
@@ -8144,7 +8127,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="165" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:15">
       <c r="A165">
         <v>0</v>
       </c>
@@ -8191,7 +8174,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="166" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:15">
       <c r="A166">
         <v>0</v>
       </c>
@@ -8238,7 +8221,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="167" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:15">
       <c r="A167">
         <v>0</v>
       </c>
@@ -8285,7 +8268,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="168" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:15">
       <c r="A168">
         <v>0</v>
       </c>
@@ -8332,7 +8315,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="169" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:15">
       <c r="A169">
         <v>0</v>
       </c>
@@ -8379,7 +8362,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="170" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:15">
       <c r="A170">
         <v>1</v>
       </c>
@@ -8426,7 +8409,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="171" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:15">
       <c r="A171">
         <v>0</v>
       </c>
@@ -8473,7 +8456,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="172" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:15">
       <c r="A172">
         <v>1</v>
       </c>
@@ -8520,7 +8503,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="173" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:15">
       <c r="A173">
         <v>0</v>
       </c>
@@ -8567,7 +8550,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="174" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:15">
       <c r="A174">
         <v>1</v>
       </c>
@@ -8614,7 +8597,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="175" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:15">
       <c r="A175">
         <v>1</v>
       </c>
@@ -8661,7 +8644,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="176" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:15">
       <c r="A176">
         <v>1</v>
       </c>
@@ -8708,7 +8691,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="177" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:15">
       <c r="A177">
         <v>1</v>
       </c>
@@ -8755,7 +8738,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="178" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:15">
       <c r="A178">
         <v>0</v>
       </c>
@@ -8802,7 +8785,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="179" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:15">
       <c r="A179">
         <v>1</v>
       </c>
@@ -8849,7 +8832,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="180" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:15">
       <c r="A180">
         <v>1</v>
       </c>
@@ -8896,7 +8879,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="181" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:15">
       <c r="A181">
         <v>0</v>
       </c>
@@ -8943,7 +8926,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="182" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:15">
       <c r="A182">
         <v>0</v>
       </c>
@@ -8990,7 +8973,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="183" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:15">
       <c r="A183">
         <v>0</v>
       </c>
@@ -9037,7 +9020,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="184" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:15">
       <c r="A184">
         <v>1</v>
       </c>
@@ -9084,7 +9067,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="185" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:15">
       <c r="A185">
         <v>1</v>
       </c>
@@ -9131,7 +9114,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="186" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:15">
       <c r="A186">
         <v>0</v>
       </c>
@@ -9178,7 +9161,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="187" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:15">
       <c r="A187">
         <v>0</v>
       </c>
@@ -9225,7 +9208,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="188" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:15">
       <c r="A188">
         <v>1</v>
       </c>
@@ -9272,7 +9255,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="189" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:15">
       <c r="A189">
         <v>1</v>
       </c>
@@ -9319,7 +9302,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="190" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:15">
       <c r="A190">
         <v>0</v>
       </c>
@@ -9366,7 +9349,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="191" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:15">
       <c r="A191">
         <v>0</v>
       </c>
@@ -9413,7 +9396,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="192" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:15">
       <c r="A192">
         <v>1</v>
       </c>
@@ -9460,7 +9443,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="193" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:16">
       <c r="A193">
         <v>0</v>
       </c>
@@ -9507,7 +9490,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="194" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:16">
       <c r="A194">
         <v>0</v>
       </c>
@@ -9554,7 +9537,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="195" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:16">
       <c r="A195">
         <v>1</v>
       </c>
@@ -9601,7 +9584,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="196" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:16">
       <c r="A196">
         <v>0</v>
       </c>
@@ -9648,7 +9631,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="197" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:16">
       <c r="A197">
         <v>1</v>
       </c>
@@ -9695,7 +9678,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="198" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:16">
       <c r="A198">
         <v>0</v>
       </c>
@@ -9742,7 +9725,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="199" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:16">
       <c r="A199">
         <v>0</v>
       </c>
@@ -9789,7 +9772,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="200" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:16">
       <c r="A200">
         <v>1</v>
       </c>
@@ -9836,7 +9819,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="201" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:16">
       <c r="A201">
         <v>1</v>
       </c>
@@ -9883,7 +9866,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="202" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:16">
       <c r="A202">
         <v>0</v>
       </c>
@@ -9930,7 +9913,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="203" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:16">
       <c r="A203">
         <v>1</v>
       </c>
@@ -9977,7 +9960,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="204" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:16">
       <c r="A204">
         <v>0</v>
       </c>
@@ -10027,7 +10010,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="205" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:16">
       <c r="A205">
         <v>0</v>
       </c>
@@ -10074,7 +10057,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="206" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:16">
       <c r="A206">
         <v>1</v>
       </c>
@@ -10121,7 +10104,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="207" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:16">
       <c r="A207">
         <v>1</v>
       </c>
@@ -10168,7 +10151,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="208" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:16">
       <c r="A208">
         <v>0</v>
       </c>
@@ -10215,7 +10198,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="209" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:16">
       <c r="A209">
         <v>0</v>
       </c>
@@ -10262,7 +10245,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="210" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:16">
       <c r="A210">
         <v>1</v>
       </c>
@@ -10309,7 +10292,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="211" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:16">
       <c r="A211">
         <v>1</v>
       </c>
@@ -10356,7 +10339,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="212" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:16">
       <c r="A212">
         <v>0</v>
       </c>
@@ -10403,7 +10386,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="213" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:16">
       <c r="A213">
         <v>1</v>
       </c>
@@ -10450,7 +10433,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="214" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:16">
       <c r="A214">
         <v>0</v>
       </c>
@@ -10500,7 +10483,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="215" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:16">
       <c r="A215">
         <v>0</v>
       </c>
@@ -10547,7 +10530,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="216" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:16">
       <c r="A216">
         <v>0</v>
       </c>
@@ -10594,7 +10577,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="217" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:16">
       <c r="A217">
         <v>1</v>
       </c>
@@ -10641,7 +10624,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="218" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:16">
       <c r="A218">
         <v>1</v>
       </c>
@@ -10688,7 +10671,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="219" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:16">
       <c r="A219">
         <v>0</v>
       </c>
@@ -10735,7 +10718,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="220" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:16">
       <c r="A220">
         <v>1</v>
       </c>
@@ -10782,7 +10765,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="221" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:16">
       <c r="A221">
         <v>0</v>
       </c>
@@ -10829,7 +10812,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="222" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:16">
       <c r="A222">
         <v>0</v>
       </c>
@@ -10876,7 +10859,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="223" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:16">
       <c r="A223">
         <v>1</v>
       </c>
@@ -10923,7 +10906,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="224" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:16">
       <c r="A224">
         <v>1</v>
       </c>
@@ -10970,7 +10953,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="225" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:16">
       <c r="A225">
         <v>1</v>
       </c>
@@ -11017,7 +11000,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="226" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:16">
       <c r="A226">
         <v>1</v>
       </c>
@@ -11064,7 +11047,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="227" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:16">
       <c r="A227">
         <v>0</v>
       </c>
@@ -11111,7 +11094,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="228" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:16">
       <c r="A228">
         <v>0</v>
       </c>
@@ -11158,7 +11141,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="229" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:16">
       <c r="A229">
         <v>1</v>
       </c>
@@ -11205,7 +11188,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="230" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:16">
       <c r="A230">
         <v>0</v>
       </c>
@@ -11255,7 +11238,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="231" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:16">
       <c r="A231">
         <v>0</v>
       </c>
@@ -11302,7 +11285,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="232" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:16">
       <c r="A232">
         <v>1</v>
       </c>
@@ -11349,7 +11332,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="233" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:16">
       <c r="A233">
         <v>1</v>
       </c>
@@ -11396,7 +11379,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="234" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:16">
       <c r="A234">
         <v>0</v>
       </c>
@@ -11443,7 +11426,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="235" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:16">
       <c r="A235">
         <v>1</v>
       </c>
@@ -11490,7 +11473,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="236" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:16">
       <c r="A236">
         <v>0</v>
       </c>
@@ -11537,7 +11520,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="237" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:16">
       <c r="A237">
         <v>0</v>
       </c>
@@ -11584,7 +11567,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="238" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:16">
       <c r="A238">
         <v>0</v>
       </c>
@@ -11631,7 +11614,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="239" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:16">
       <c r="A239">
         <v>0</v>
       </c>
@@ -11678,7 +11661,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="240" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:16">
       <c r="A240">
         <v>0</v>
       </c>
@@ -11725,7 +11708,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="241" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:15">
       <c r="A241">
         <v>1</v>
       </c>
@@ -11772,7 +11755,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="242" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:15">
       <c r="A242">
         <v>1</v>
       </c>
@@ -11819,7 +11802,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="243" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:15">
       <c r="A243">
         <v>0</v>
       </c>
@@ -11866,7 +11849,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="244" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:15">
       <c r="A244">
         <v>1</v>
       </c>
@@ -11913,7 +11896,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="245" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:15">
       <c r="A245">
         <v>0</v>
       </c>
@@ -11960,7 +11943,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="246" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:15">
       <c r="A246">
         <v>0</v>
       </c>
